--- a/synuclein_inclusion_biogenesis_2024/image_analysis/Code_Figure_Index.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/Code_Figure_Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm2503\Documents\GitHub\Kara-Lab\synuclein_inclusion_biogenesis_2024\image_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02169A2-3DCF-46CE-915B-8E0357F9690D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45315B34-E287-45AC-AA86-FA89B21C7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14295" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>Figures</t>
   </si>
@@ -67,9 +67,6 @@
     <t>2N</t>
   </si>
   <si>
-    <t>2P</t>
-  </si>
-  <si>
     <t>3B</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
   </si>
   <si>
     <t>ananya - spermine inclusion #</t>
-  </si>
-  <si>
-    <t>frequency plot of size of inclusions for each sirna -- no idea what this is from</t>
-  </si>
-  <si>
-    <t>ananya - spermine inclusion # ???????????</t>
   </si>
   <si>
     <t>ananya -- plasmid inclusion counts</t>
@@ -593,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -626,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -642,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -682,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -690,15 +681,15 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>74</v>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -706,15 +697,15 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -722,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -738,15 +729,15 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>75</v>
+      <c r="B18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,7 +745,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -762,7 +753,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -770,47 +761,47 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>76</v>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -826,7 +817,7 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,7 +833,7 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +849,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +873,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -895,10 +886,10 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +897,7 @@
         <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +905,7 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +913,7 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,8 +928,8 @@
       <c r="A42" t="s">
         <v>58</v>
       </c>
-      <c r="B42" t="s">
-        <v>70</v>
+      <c r="B42" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,15 +937,15 @@
         <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>77</v>
+      <c r="B44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +953,7 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +961,7 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,15 +969,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +982,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,34 +1001,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1036,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/synuclein_inclusion_biogenesis_2024/image_analysis/Code_Figure_Index.xlsx
+++ b/synuclein_inclusion_biogenesis_2024/image_analysis/Code_Figure_Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jm2503\Documents\GitHub\Kara-Lab\synuclein_inclusion_biogenesis_2024\image_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45315B34-E287-45AC-AA86-FA89B21C7AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8C2C46-6AC2-4EBE-A2F2-221A4C9B3BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>Figures</t>
   </si>
@@ -238,19 +238,7 @@
     <t>synuclein_inclusion_biogenesis_2024\image_analysis\lc3\lc3_analysis.ipynb</t>
   </si>
   <si>
-    <t>ananya - hex inclusion #</t>
-  </si>
-  <si>
-    <t>ananya - hex inclusion size</t>
-  </si>
-  <si>
-    <t>ananya - spermine inclusion #</t>
-  </si>
-  <si>
-    <t>ananya -- plasmid inclusion counts</t>
-  </si>
-  <si>
-    <t>ananya -- dox +/- CH</t>
+    <t>synuclein_inclusion_biogenesis_2024\image_analysis\inclusion_counting\inclusion_analysis.ipynb</t>
   </si>
 </sst>
 </file>
@@ -274,18 +262,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -303,7 +285,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,7 +569,7 @@
   <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +590,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -616,7 +598,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -624,7 +606,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -632,7 +614,7 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -640,7 +622,7 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -648,7 +630,7 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -656,7 +638,7 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -673,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -681,14 +663,14 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -696,7 +678,7 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -704,7 +686,7 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -712,7 +694,7 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -720,7 +702,7 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -728,7 +710,7 @@
       <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -736,7 +718,7 @@
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -744,7 +726,7 @@
       <c r="A19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -752,7 +734,7 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -760,7 +742,7 @@
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -769,14 +751,14 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -784,7 +766,7 @@
       <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -792,7 +774,7 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -800,7 +782,7 @@
       <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -808,7 +790,7 @@
       <c r="A27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -816,7 +798,7 @@
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -824,7 +806,7 @@
       <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -832,7 +814,7 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -840,7 +822,7 @@
       <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -848,7 +830,7 @@
       <c r="A32" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -856,7 +838,7 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -864,7 +846,7 @@
       <c r="A34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -872,7 +854,7 @@
       <c r="A35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -880,7 +862,7 @@
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -888,7 +870,7 @@
       <c r="A37" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -896,7 +878,7 @@
       <c r="A38" t="s">
         <v>54</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -904,7 +886,7 @@
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -912,7 +894,7 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>68</v>
       </c>
     </row>
@@ -920,7 +902,7 @@
       <c r="A41" t="s">
         <v>57</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>69</v>
       </c>
     </row>
@@ -929,7 +911,7 @@
         <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,14 +919,14 @@
         <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>60</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -952,7 +934,7 @@
       <c r="A45" t="s">
         <v>61</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -960,7 +942,7 @@
       <c r="A46" t="s">
         <v>62</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -968,7 +950,7 @@
       <c r="A47" t="s">
         <v>63</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -982,7 +964,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B10"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
